--- a/SeminarWebsite/wwwroot/Uploads/StaffMockData.xlsx
+++ b/SeminarWebsite/wwwroot/Uploads/StaffMockData.xlsx
@@ -1,39 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C38312A-B3D8-40E0-A77C-3015489673A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15434931-3C86-4C30-A6CB-332EB7A89FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1110" windowWidth="19710" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>userFirstName</t>
+  </si>
+  <si>
+    <t>userLastName</t>
+  </si>
   <si>
     <t>userID</t>
   </si>
   <si>
-    <t>userFirstName</t>
-  </si>
-  <si>
-    <t>userLastName</t>
+    <t>userAddress</t>
+  </si>
+  <si>
+    <t>userLocationCity</t>
   </si>
   <si>
     <t>userHomePhoneNumber</t>
@@ -42,12 +59,6 @@
     <t>userCellPhoneNumber</t>
   </si>
   <si>
-    <t>userAddress</t>
-  </si>
-  <si>
-    <t>userLocationCity</t>
-  </si>
-  <si>
     <t>staffMemberPosition</t>
   </si>
   <si>
@@ -60,41 +71,41 @@
     <t>חכים</t>
   </si>
   <si>
+    <t>ר' צדוק 3</t>
+  </si>
+  <si>
     <t>בית שמש</t>
   </si>
   <si>
     <t>מנהלת</t>
   </si>
   <si>
+    <t>יוכבד</t>
+  </si>
+  <si>
     <t>פאללאק</t>
   </si>
   <si>
-    <t>יוכבד</t>
-  </si>
-  <si>
     <t>נחל לכיש 6</t>
-  </si>
-  <si>
-    <t>ר' צדוק 3</t>
-  </si>
-  <si>
-    <t>גאולה</t>
-  </si>
-  <si>
-    <t>מורה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,8 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
@@ -418,20 +435,20 @@
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -447,82 +464,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>325415115</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
         <v>29995933</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>548411444</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>334061892</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>334061892</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3">
+        <v>29926812</v>
+      </c>
+      <c r="G3">
+        <v>583249371</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3">
-        <v>29926812</v>
-      </c>
-      <c r="E3">
-        <v>583249371</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>34390666</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>29995933</v>
-      </c>
-      <c r="E4">
-        <v>527668429</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
